--- a/ysdq/launchCheck/数据统计.xlsx
+++ b/ysdq/launchCheck/数据统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="324">
   <si>
     <t xml:space="preserve"> _x0008_0.5687 </t>
   </si>
@@ -580,6 +580,435 @@
   </si>
   <si>
     <t xml:space="preserve">  405.98  (49.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 228.02  (30.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   9.94  (1.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  45.70  (6.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 257.31  (34.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  21.90  (2.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  15.90  (2.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 752.73  (100.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.15  (4.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  24.51  (3.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  47.19  (6.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  83.99  (11.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  66.91  (8.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 411.98  (54.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  84.01  (14.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10.27  (1.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  60.42  (10.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 233.21  (40.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13.60  (2.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  15.54  (2.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 575.92  (100.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  35.01  (6.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  40.74  (7.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  78.57  (13.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  75.58  (13.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 355.77  (61.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 307.39  (19.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  29.56  (1.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  51.98  (3.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 489.82  (31.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.49  (2.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.5 seconds (100.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  48.18  (3.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 224.35  (14.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 316.38  (20.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 215.61  (13.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.0 seconds (63.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 284.20  (30.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  12.64  (1.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  59.39  (6.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 272.26  (29.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  21.80  (2.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  21.38  (2.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 925.60  (100.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  36.41  (3.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  46.42  (5.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 138.67  (14.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 114.39  (12.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 467.41  (50.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  84.86  (15.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   9.57  (1.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  46.14  (8.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 232.32  (43.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  12.75  (2.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  15.75  (2.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 536.80  (100.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  33.86  (6.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  45.18  (8.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  84.27  (15.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  66.71  (12.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 338.94  (63.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  84.81  (15.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  11.00  (1.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  43.96  (7.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 236.98  (42.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  12.89  (2.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14.88  (2.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 553.70  (100.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  33.26  (6.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  42.60  (7.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  87.67  (15.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  79.50  (14.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 345.28  (62.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 224.06  (28.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   9.59  (1.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.28  (6.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 271.74  (35.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  20.55  (2.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  15.72  (2.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 775.60  (100.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  39.32  (5.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  46.53  (5.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  94.60  (12.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  74.61  (9.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 422.50  (54.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  89.08  (15.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   9.80  (1.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  47.61  (8.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 228.43  (38.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13.97  (2.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  15.73  (2.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 588.05  (100.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  39.80  (6.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  52.25  (8.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 116.30  (19.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  66.16  (11.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 385.07  (65.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 193.78  (26.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10.80  (1.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  43.78  (6.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 255.33  (35.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  21.86  (3.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14.96  (2.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 719.06  (100.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  40.66  (5.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  44.58  (6.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  78.47  (10.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  85.10  (11.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 396.27  (55.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  98.28  (17.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   9.82  (1.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  49.84  (8.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 222.29  (39.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  12.97  (2.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  15.63  (2.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 568.00  (100.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  39.74  (6.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  51.91  (9.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  88.49  (15.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  70.71  (12.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 349.01  (61.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  79.54  (14.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10.28  (1.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  43.63  (8.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 226.18  (41.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  12.84  (2.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  25.58  (4.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 542.20  (100.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.27  (7.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  40.86  (7.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  86.38  (15.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  69.20  (12.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 349.69  (64.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 281.08  (34.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  11.21  (1.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  63.58  (7.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 261.86  (32.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  22.41  (2.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 817.46  (100.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  33.56  (4.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  42.61  (5.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  91.16  (11.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  66.64  (8.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 405.98  (49.6%)</t>
   </si>
 </sst>
 </file>
@@ -1246,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1739,18 +2168,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -2289,6 +2727,542 @@
       </c>
       <c r="M14" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" t="s">
+        <v>129</v>
+      </c>
+      <c r="L21" t="s">
+        <v>142</v>
+      </c>
+      <c r="M21" t="s">
+        <v>155</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" t="s">
+        <v>187</v>
+      </c>
+      <c r="I22" t="s">
+        <v>188</v>
+      </c>
+      <c r="J22" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s">
+        <v>191</v>
+      </c>
+      <c r="M22" t="s">
+        <v>192</v>
+      </c>
+      <c r="N22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>200</v>
+      </c>
+      <c r="I23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" t="s">
+        <v>204</v>
+      </c>
+      <c r="N23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>211</v>
+      </c>
+      <c r="I24" t="s">
+        <v>212</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" t="s">
+        <v>215</v>
+      </c>
+      <c r="N24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" t="s">
+        <v>221</v>
+      </c>
+      <c r="F25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" t="s">
+        <v>223</v>
+      </c>
+      <c r="I25" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>225</v>
+      </c>
+      <c r="L25" t="s">
+        <v>226</v>
+      </c>
+      <c r="M25" t="s">
+        <v>227</v>
+      </c>
+      <c r="N25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" t="s">
+        <v>233</v>
+      </c>
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" t="s">
+        <v>235</v>
+      </c>
+      <c r="I26" t="s">
+        <v>236</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" t="s">
+        <v>239</v>
+      </c>
+      <c r="N26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" t="s">
+        <v>244</v>
+      </c>
+      <c r="E27" t="s">
+        <v>245</v>
+      </c>
+      <c r="F27" t="s">
+        <v>246</v>
+      </c>
+      <c r="G27" t="s">
+        <v>247</v>
+      </c>
+      <c r="I27" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>249</v>
+      </c>
+      <c r="L27" t="s">
+        <v>250</v>
+      </c>
+      <c r="M27" t="s">
+        <v>251</v>
+      </c>
+      <c r="N27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" t="s">
+        <v>256</v>
+      </c>
+      <c r="E28" t="s">
+        <v>257</v>
+      </c>
+      <c r="F28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" t="s">
+        <v>259</v>
+      </c>
+      <c r="I28" t="s">
+        <v>260</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>261</v>
+      </c>
+      <c r="L28" t="s">
+        <v>262</v>
+      </c>
+      <c r="M28" t="s">
+        <v>263</v>
+      </c>
+      <c r="N28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" t="s">
+        <v>269</v>
+      </c>
+      <c r="F29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" t="s">
+        <v>271</v>
+      </c>
+      <c r="I29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" t="s">
+        <v>275</v>
+      </c>
+      <c r="N29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>277</v>
+      </c>
+      <c r="B30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E30" t="s">
+        <v>281</v>
+      </c>
+      <c r="F30" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30" t="s">
+        <v>283</v>
+      </c>
+      <c r="I30" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>285</v>
+      </c>
+      <c r="L30" t="s">
+        <v>286</v>
+      </c>
+      <c r="M30" t="s">
+        <v>287</v>
+      </c>
+      <c r="N30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" t="s">
+        <v>291</v>
+      </c>
+      <c r="D31" t="s">
+        <v>292</v>
+      </c>
+      <c r="E31" t="s">
+        <v>293</v>
+      </c>
+      <c r="F31" t="s">
+        <v>294</v>
+      </c>
+      <c r="G31" t="s">
+        <v>295</v>
+      </c>
+      <c r="I31" t="s">
+        <v>296</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>297</v>
+      </c>
+      <c r="L31" t="s">
+        <v>298</v>
+      </c>
+      <c r="M31" t="s">
+        <v>299</v>
+      </c>
+      <c r="N31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>301</v>
+      </c>
+      <c r="B32" t="s">
+        <v>302</v>
+      </c>
+      <c r="C32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" t="s">
+        <v>304</v>
+      </c>
+      <c r="E32" t="s">
+        <v>305</v>
+      </c>
+      <c r="F32" t="s">
+        <v>306</v>
+      </c>
+      <c r="G32" t="s">
+        <v>307</v>
+      </c>
+      <c r="I32" t="s">
+        <v>308</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>309</v>
+      </c>
+      <c r="L32" t="s">
+        <v>310</v>
+      </c>
+      <c r="M32" t="s">
+        <v>311</v>
+      </c>
+      <c r="N32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B33" t="s">
+        <v>314</v>
+      </c>
+      <c r="C33" t="s">
+        <v>315</v>
+      </c>
+      <c r="D33" t="s">
+        <v>316</v>
+      </c>
+      <c r="E33" t="s">
+        <v>317</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>318</v>
+      </c>
+      <c r="I33" t="s">
+        <v>319</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>320</v>
+      </c>
+      <c r="L33" t="s">
+        <v>321</v>
+      </c>
+      <c r="M33" t="s">
+        <v>322</v>
+      </c>
+      <c r="N33" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
